--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BBBE26-22E0-E644-9C7B-77F863454CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75257429-8CD5-E549-81A9-D9A0A530A0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -536,51 +536,87 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>META2XML.ELEMENT_COMMON_TS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlancoVueComponent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blanco.vuecomponent.resourcebundle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancoVueComponentが利用するリソースバンドルを蓄えます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-extends</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-implements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_COMMON_CS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>blancovalueobjectcs-common</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>META2XML.ELEMENT_COMMON_JS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>blancovalueobjectjs-common</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>META2XML.ELEMENT_COMMON_VB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>blancovalueobjectvb-common</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>META2XML.ELEMENT_COMMON_PHP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>blancovalueobjectphp-common</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>META2XML.ELEMENT_COMMON_RUBY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>blancovalueobjectruby-common</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>META2XML.ELEMENT_COMMON_PYTHON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>blancovalueobjectpython-common</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>META2XML.ELEMENT_COMMON_CS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_COMMON_JS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_COMMON_VB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_COMMON_PHP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_COMMON_RUBY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_COMMON_PYTHON</t>
+    <t>META2XML.ELEMENT_COMMON_KT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -588,51 +624,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>META2XML.ELEMENT_COMMON_KT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>blancovalueobjectts-common</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>META2XML.ELEMENT_COMMON_TS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BlancoVueComponent</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blanco.vuecomponent.resourcebundle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancoVueComponentが利用するリソースバンドルを蓄えます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovuecomponent-common</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovuecomponent-list</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovuecomponent-extends</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovuecomponent-implements</t>
-    <phoneticPr fontId="1"/>
+    <t>META2XML.ELEMENT_COMPONENTS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-components</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_HEADER</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-header</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -658,8 +674,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,8 +706,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -982,11 +1016,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1073,6 +1172,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1483,10 +1593,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1531,7 +1641,7 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="15"/>
@@ -1555,7 +1665,7 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
@@ -1566,7 +1676,7 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1653,7 +1763,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="28">
-        <f t="shared" ref="A17:A80" si="0">A16+1</f>
+        <f t="shared" ref="A17:A82" si="0">A16+1</f>
         <v>3</v>
       </c>
       <c r="B17" s="23"/>
@@ -1796,7 +1906,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -1813,7 +1923,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -1830,7 +1940,7 @@
         <v>42</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -1847,7 +1957,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -1859,67 +1969,73 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="28">
+    <row r="32" spans="1:9" s="48" customFormat="1">
+      <c r="A32" s="42">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="B32" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="28">
+      <c r="A33" s="42">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="28">
+      <c r="A34" s="42">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="28">
+      <c r="A35" s="42">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
@@ -1927,31 +2043,27 @@
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="28">
+      <c r="A36" s="42">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>38</v>
-      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="28">
+      <c r="A37" s="42">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
@@ -1959,27 +2071,31 @@
       <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="28">
+      <c r="A38" s="42">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="28">
+      <c r="A39" s="42">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
@@ -1987,31 +2103,27 @@
       <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="28">
+      <c r="A40" s="42">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>38</v>
-      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="28">
+      <c r="A41" s="42">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
@@ -2019,15 +2131,15 @@
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="28">
+      <c r="A42" s="42">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
@@ -2035,25 +2147,31 @@
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="28">
+      <c r="A43" s="42">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="20"/>
+      <c r="B43" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="28">
+      <c r="A44" s="42">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B44" s="23"/>
+      <c r="B44" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="C44" s="20" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
@@ -2061,21 +2179,19 @@
       <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="28">
+      <c r="A45" s="42">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B45" s="23"/>
-      <c r="C45" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="C45" s="20"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="28">
+      <c r="A46" s="42">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -2089,25 +2205,27 @@
       <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="28">
+      <c r="A47" s="42">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B47" s="23"/>
-      <c r="C47" s="20"/>
+      <c r="C47" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="28">
+      <c r="A48" s="42">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
@@ -2115,31 +2233,25 @@
       <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="28">
+      <c r="A49" s="42">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="28">
+      <c r="A50" s="42">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>46</v>
-      </c>
+      <c r="B50" s="23"/>
       <c r="C50" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
@@ -2147,15 +2259,15 @@
       <c r="G50" s="22"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="28">
+      <c r="A51" s="42">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
@@ -2163,15 +2275,15 @@
       <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="28">
+      <c r="A52" s="42">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
@@ -2179,15 +2291,15 @@
       <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="28">
+      <c r="A53" s="42">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
@@ -2195,15 +2307,15 @@
       <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="28">
+      <c r="A54" s="42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
@@ -2211,27 +2323,31 @@
       <c r="G54" s="22"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="28">
+      <c r="A55" s="42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="20"/>
+      <c r="B55" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="22"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="28">
+      <c r="A56" s="42">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
@@ -2239,31 +2355,27 @@
       <c r="G56" s="22"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="28">
+      <c r="A57" s="42">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
       <c r="G57" s="22"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="28">
+      <c r="A58" s="42">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
@@ -2271,27 +2383,31 @@
       <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="28">
+      <c r="A59" s="42">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="20"/>
+      <c r="B59" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
       <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="28">
+      <c r="A60" s="42">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
@@ -2299,31 +2415,27 @@
       <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="28">
+      <c r="A61" s="42">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
       <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="28">
+      <c r="A62" s="42">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
@@ -2331,27 +2443,31 @@
       <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="28">
+      <c r="A63" s="42">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="20"/>
+      <c r="B63" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
       <c r="G63" s="22"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="28">
+      <c r="A64" s="42">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
@@ -2359,31 +2475,27 @@
       <c r="G64" s="22"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="28">
+      <c r="A65" s="42">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
       <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="28">
+      <c r="A66" s="42">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
@@ -2391,15 +2503,15 @@
       <c r="G66" s="22"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="28">
+      <c r="A67" s="42">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
@@ -2407,27 +2519,31 @@
       <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="28">
+      <c r="A68" s="42">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="20"/>
+      <c r="B68" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
       <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="28">
+      <c r="A69" s="42">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
@@ -2435,31 +2551,27 @@
       <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="28">
+      <c r="A70" s="42">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
       <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="28">
+      <c r="A71" s="42">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
@@ -2467,15 +2579,15 @@
       <c r="G71" s="22"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="28">
+      <c r="A72" s="42">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
@@ -2483,27 +2595,31 @@
       <c r="G72" s="22"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="28">
+      <c r="A73" s="42">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="20"/>
+      <c r="B73" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
       <c r="F73" s="21"/>
       <c r="G73" s="22"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="28">
+      <c r="A74" s="42">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
@@ -2511,7 +2627,7 @@
       <c r="G74" s="22"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="28">
+      <c r="A75" s="42">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -2523,13 +2639,15 @@
       <c r="G75" s="22"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="28">
+      <c r="A76" s="42">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B76" s="23"/>
+      <c r="B76" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="C76" s="20" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
@@ -2537,21 +2655,19 @@
       <c r="G76" s="22"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="28">
+      <c r="A77" s="42">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B77" s="23"/>
-      <c r="C77" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C77" s="20"/>
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
       <c r="G77" s="22"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="28">
+      <c r="A78" s="42">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
@@ -2565,27 +2681,27 @@
       <c r="G78" s="22"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="28">
+      <c r="A79" s="42">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B79" s="23"/>
-      <c r="C79" s="20"/>
+      <c r="C79" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
       <c r="G79" s="22"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="28">
+      <c r="A80" s="42">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B80" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="B80" s="23"/>
       <c r="C80" s="20" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
@@ -2593,15 +2709,15 @@
       <c r="G80" s="22"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="28">
-        <f t="shared" ref="A81:A87" si="1">A80+1</f>
+      <c r="A81" s="42">
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
@@ -2609,15 +2725,15 @@
       <c r="G81" s="22"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="28">
-        <f t="shared" si="1"/>
+      <c r="A82" s="42">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
@@ -2625,15 +2741,15 @@
       <c r="G82" s="22"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="28">
-        <f t="shared" si="1"/>
+      <c r="A83" s="42">
+        <f t="shared" ref="A83:A88" si="1">A82+1</f>
         <v>69</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
@@ -2641,15 +2757,15 @@
       <c r="G83" s="22"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="28">
+      <c r="A84" s="42">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
@@ -2657,15 +2773,15 @@
       <c r="G84" s="22"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="28">
+      <c r="A85" s="42">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
@@ -2673,15 +2789,15 @@
       <c r="G85" s="22"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="28">
+      <c r="A86" s="42">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
@@ -2689,29 +2805,54 @@
       <c r="G86" s="22"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="28">
+      <c r="A87" s="42">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="22"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="29"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="27"/>
+      <c r="A88" s="42">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="22"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="28"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="35"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="29"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75257429-8CD5-E549-81A9-D9A0A530A0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F379FEBF-1C5B-FE4D-A3B9-8EE0E7E3FD4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -641,6 +641,14 @@
   </si>
   <si>
     <t>blancovuecomponent-header</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_HEADER_INTERFACE</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-header-interface</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1156,6 +1164,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,17 +1191,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1593,10 +1601,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1713,25 +1721,25 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
@@ -1763,7 +1771,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="28">
-        <f t="shared" ref="A17:A82" si="0">A16+1</f>
+        <f t="shared" ref="A17:A83" si="0">A16+1</f>
         <v>3</v>
       </c>
       <c r="B17" s="23"/>
@@ -1980,252 +1988,256 @@
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="48" customFormat="1">
-      <c r="A32" s="42">
+    <row r="32" spans="1:9" s="42" customFormat="1">
+      <c r="A32" s="36">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="47"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="42">
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
+    </row>
+    <row r="33" spans="1:9" s="42" customFormat="1">
+      <c r="A33" s="36">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="42">
+      <c r="B33" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="42">
+    <row r="35" spans="1:9">
+      <c r="A35" s="36">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="42">
+    <row r="36" spans="1:9">
+      <c r="A36" s="36">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="42">
+    <row r="37" spans="1:9">
+      <c r="A37" s="36">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="42">
+    <row r="38" spans="1:9">
+      <c r="A38" s="36">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="42">
+    <row r="39" spans="1:9">
+      <c r="A39" s="36">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="42">
+    <row r="40" spans="1:9">
+      <c r="A40" s="36">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="20"/>
+      <c r="B40" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="42">
+    <row r="41" spans="1:9">
+      <c r="A41" s="36">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="42">
+    <row r="42" spans="1:9">
+      <c r="A42" s="36">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="42">
+    <row r="43" spans="1:9">
+      <c r="A43" s="36">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="42">
+    <row r="44" spans="1:9">
+      <c r="A44" s="36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="22"/>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="42">
+    <row r="45" spans="1:9">
+      <c r="A45" s="36">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="20"/>
+      <c r="B45" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="42">
+    <row r="46" spans="1:9">
+      <c r="A46" s="36">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B46" s="23"/>
-      <c r="C46" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C46" s="20"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="42">
+    <row r="47" spans="1:9">
+      <c r="A47" s="36">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="20" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="42">
+    <row r="48" spans="1:9">
+      <c r="A48" s="36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="20" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
@@ -2233,41 +2245,39 @@
       <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="42">
+      <c r="A49" s="36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B49" s="23"/>
-      <c r="C49" s="20"/>
+      <c r="C49" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="42">
+      <c r="A50" s="36">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B50" s="23"/>
-      <c r="C50" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C50" s="20"/>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="42">
+      <c r="A51" s="36">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>45</v>
-      </c>
+      <c r="B51" s="23"/>
       <c r="C51" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
@@ -2275,15 +2285,15 @@
       <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="42">
+      <c r="A52" s="36">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
@@ -2291,15 +2301,15 @@
       <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="42">
+      <c r="A53" s="36">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
@@ -2307,15 +2317,15 @@
       <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="42">
+      <c r="A54" s="36">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
@@ -2323,15 +2333,15 @@
       <c r="G54" s="22"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="42">
+      <c r="A55" s="36">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
@@ -2339,15 +2349,15 @@
       <c r="G55" s="22"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="42">
+      <c r="A56" s="36">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
@@ -2355,43 +2365,43 @@
       <c r="G56" s="22"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="42">
+      <c r="A57" s="36">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="20"/>
+      <c r="B57" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
       <c r="G57" s="22"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="42">
+      <c r="A58" s="36">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B58" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>77</v>
-      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
       <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="42">
+      <c r="A59" s="36">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
@@ -2399,15 +2409,15 @@
       <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="42">
+      <c r="A60" s="36">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
@@ -2415,43 +2425,43 @@
       <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="42">
+      <c r="A61" s="36">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="20"/>
+      <c r="B61" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
       <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="42">
+      <c r="A62" s="36">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
       <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="42">
+      <c r="A63" s="36">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
@@ -2459,15 +2469,15 @@
       <c r="G63" s="22"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="42">
+      <c r="A64" s="36">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
@@ -2475,43 +2485,43 @@
       <c r="G64" s="22"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="42">
+      <c r="A65" s="36">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="20"/>
+      <c r="B65" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
       <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="42">
+      <c r="A66" s="36">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B66" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
       <c r="G66" s="22"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="42">
+      <c r="A67" s="36">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
@@ -2519,15 +2529,15 @@
       <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="42">
+      <c r="A68" s="36">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
@@ -2535,15 +2545,15 @@
       <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="42">
+      <c r="A69" s="36">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
@@ -2551,43 +2561,43 @@
       <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="42">
+      <c r="A70" s="36">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="20"/>
+      <c r="B70" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
       <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="42">
+      <c r="A71" s="36">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
       <c r="F71" s="21"/>
       <c r="G71" s="22"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="42">
+      <c r="A72" s="36">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
@@ -2595,15 +2605,15 @@
       <c r="G72" s="22"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="42">
+      <c r="A73" s="36">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
@@ -2611,15 +2621,15 @@
       <c r="G73" s="22"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="42">
+      <c r="A74" s="36">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
@@ -2627,67 +2637,69 @@
       <c r="G74" s="22"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="42">
+      <c r="A75" s="36">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="20"/>
+      <c r="B75" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
       <c r="G75" s="22"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="42">
+      <c r="A76" s="36">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B76" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
       <c r="G76" s="22"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="42">
+      <c r="A77" s="36">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="20"/>
+      <c r="B77" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
       <c r="G77" s="22"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="42">
+      <c r="A78" s="36">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B78" s="23"/>
-      <c r="C78" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C78" s="20"/>
       <c r="D78" s="21"/>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
       <c r="G78" s="22"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="42">
+      <c r="A79" s="36">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="20" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
@@ -2695,13 +2707,13 @@
       <c r="G79" s="22"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="42">
+      <c r="A80" s="36">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="20" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
@@ -2709,15 +2721,13 @@
       <c r="G80" s="22"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="42">
+      <c r="A81" s="36">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B81" s="23" t="s">
-        <v>97</v>
-      </c>
+      <c r="B81" s="23"/>
       <c r="C81" s="20" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
@@ -2725,15 +2735,15 @@
       <c r="G81" s="22"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="42">
+      <c r="A82" s="36">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
@@ -2741,15 +2751,15 @@
       <c r="G82" s="22"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="42">
-        <f t="shared" ref="A83:A88" si="1">A82+1</f>
+      <c r="A83" s="36">
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
@@ -2757,15 +2767,15 @@
       <c r="G83" s="22"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="42">
-        <f t="shared" si="1"/>
+      <c r="A84" s="36">
+        <f t="shared" ref="A84:A89" si="1">A83+1</f>
         <v>70</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
@@ -2773,15 +2783,15 @@
       <c r="G84" s="22"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="42">
+      <c r="A85" s="36">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
@@ -2789,15 +2799,15 @@
       <c r="G85" s="22"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="42">
+      <c r="A86" s="36">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
@@ -2805,15 +2815,15 @@
       <c r="G86" s="22"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="42">
+      <c r="A87" s="36">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
@@ -2821,15 +2831,15 @@
       <c r="G87" s="22"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="42">
+      <c r="A88" s="36">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
@@ -2837,22 +2847,38 @@
       <c r="G88" s="22"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="28"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="35"/>
+      <c r="A89" s="36">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="22"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="29"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="27"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="35"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="29"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F379FEBF-1C5B-FE4D-A3B9-8EE0E7E3FD4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29452314-2424-3547-BA20-B9B715251C6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -650,6 +650,25 @@
   <si>
     <t>blancovuecomponent-header-interface</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.ROUTECONFIG.PARAMETER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.ROUTECONFIG.CLASS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteConfigのパラメータです: [{0}]。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteConfigを定義します: [{0}]。</t>
+    <rPh sb="12" eb="14">
+      <t>テイギシマス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1601,10 +1620,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1771,7 +1790,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="28">
-        <f t="shared" ref="A17:A83" si="0">A16+1</f>
+        <f t="shared" ref="A17:A85" si="0">A16+1</f>
         <v>3</v>
       </c>
       <c r="B17" s="23"/>
@@ -2218,7 +2237,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="36">
-        <f t="shared" si="0"/>
+        <f>A46+1</f>
         <v>33</v>
       </c>
       <c r="B47" s="23"/>
@@ -2697,9 +2716,11 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B79" s="23"/>
+      <c r="B79" s="23" t="s">
+        <v>119</v>
+      </c>
       <c r="C79" s="20" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
@@ -2711,9 +2732,11 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B80" s="23"/>
+      <c r="B80" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="C80" s="20" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
@@ -2722,8 +2745,8 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="36">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <f>A78+1</f>
+        <v>65</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="20" t="s">
@@ -2737,13 +2760,11 @@
     <row r="82" spans="1:7">
       <c r="A82" s="36">
         <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>97</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B82" s="23"/>
       <c r="C82" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
@@ -2753,13 +2774,11 @@
     <row r="83" spans="1:7">
       <c r="A83" s="36">
         <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>99</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B83" s="23"/>
       <c r="C83" s="20" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
@@ -2768,14 +2787,14 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="36">
-        <f t="shared" ref="A84:A89" si="1">A83+1</f>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
@@ -2784,14 +2803,14 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="36">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
@@ -2800,14 +2819,14 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="36">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f t="shared" ref="A86:A91" si="1">A85+1</f>
+        <v>70</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
@@ -2817,13 +2836,13 @@
     <row r="87" spans="1:7">
       <c r="A87" s="36">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
@@ -2833,13 +2852,13 @@
     <row r="88" spans="1:7">
       <c r="A88" s="36">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
@@ -2849,13 +2868,13 @@
     <row r="89" spans="1:7">
       <c r="A89" s="36">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
@@ -2863,22 +2882,54 @@
       <c r="G89" s="22"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="28"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="35"/>
+      <c r="A90" s="36">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="22"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="29"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="27"/>
+      <c r="A91" s="36">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="22"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="28"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="35"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="29"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29452314-2424-3547-BA20-B9B715251C6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EEDD99-D284-B049-A986-E4DAC79228B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -667,6 +667,17 @@
     <t>RouteConfigを定義します: [{0}]。</t>
     <rPh sb="12" eb="14">
       <t>テイギシマス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.ROUTECONFIG.LIST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページコンポーネントをvue-routerでロードするための設定ファイルです</t>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">セッテイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1620,10 +1631,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1790,7 +1801,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="28">
-        <f t="shared" ref="A17:A85" si="0">A16+1</f>
+        <f t="shared" ref="A17:A87" si="0">A16+1</f>
         <v>3</v>
       </c>
       <c r="B17" s="23"/>
@@ -2745,12 +2756,14 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="36">
-        <f>A78+1</f>
-        <v>65</v>
-      </c>
-      <c r="B81" s="23"/>
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="C81" s="20" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
@@ -2760,12 +2773,10 @@
     <row r="82" spans="1:7">
       <c r="A82" s="36">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B82" s="23"/>
-      <c r="C82" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C82" s="20"/>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
@@ -2774,7 +2785,7 @@
     <row r="83" spans="1:7">
       <c r="A83" s="36">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="20" t="s">
@@ -2788,13 +2799,11 @@
     <row r="84" spans="1:7">
       <c r="A84" s="36">
         <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>97</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B84" s="23"/>
       <c r="C84" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
@@ -2804,13 +2813,11 @@
     <row r="85" spans="1:7">
       <c r="A85" s="36">
         <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>99</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B85" s="23"/>
       <c r="C85" s="20" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
@@ -2819,14 +2826,14 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="36">
-        <f t="shared" ref="A86:A91" si="1">A85+1</f>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
@@ -2835,14 +2842,14 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="36">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
@@ -2851,14 +2858,14 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="36">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f t="shared" ref="A88:A93" si="1">A87+1</f>
+        <v>74</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
@@ -2868,13 +2875,13 @@
     <row r="89" spans="1:7">
       <c r="A89" s="36">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
@@ -2884,13 +2891,13 @@
     <row r="90" spans="1:7">
       <c r="A90" s="36">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
@@ -2900,13 +2907,13 @@
     <row r="91" spans="1:7">
       <c r="A91" s="36">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
@@ -2914,22 +2921,54 @@
       <c r="G91" s="22"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="28"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="35"/>
+      <c r="A92" s="36">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="22"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="29"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="27"/>
+      <c r="A93" s="36">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="22"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="28"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="35"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="29"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EEDD99-D284-B049-A986-E4DAC79228B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808975F7-C57C-C546-971C-148ADC9EF05E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -751,7 +751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1052,21 +1052,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1123,7 +1108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1194,15 +1179,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1633,8 +1615,8 @@
   </sheetPr>
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1751,25 +1733,25 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
@@ -1801,7 +1783,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="28">
-        <f t="shared" ref="A17:A87" si="0">A16+1</f>
+        <f t="shared" ref="A17:A80" si="0">A16+1</f>
         <v>3</v>
       </c>
       <c r="B17" s="23"/>
@@ -2018,44 +2000,44 @@
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="42" customFormat="1">
-      <c r="A32" s="36">
+    <row r="32" spans="1:9" s="41" customFormat="1">
+      <c r="A32" s="28">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-    </row>
-    <row r="33" spans="1:9" s="42" customFormat="1">
-      <c r="A33" s="36">
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
+    </row>
+    <row r="33" spans="1:9" s="41" customFormat="1">
+      <c r="A33" s="28">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="40"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="36">
+      <c r="A34" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2067,7 +2049,7 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="36">
+      <c r="A35" s="28">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2083,7 +2065,7 @@
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="36">
+      <c r="A36" s="28">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -2099,7 +2081,7 @@
       <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="36">
+      <c r="A37" s="28">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -2111,7 +2093,7 @@
       <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="36">
+      <c r="A38" s="28">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -2127,7 +2109,7 @@
       <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="36">
+      <c r="A39" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -2143,7 +2125,7 @@
       <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="36">
+      <c r="A40" s="28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -2159,7 +2141,7 @@
       <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="36">
+      <c r="A41" s="28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -2171,7 +2153,7 @@
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="36">
+      <c r="A42" s="28">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -2187,7 +2169,7 @@
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="36">
+      <c r="A43" s="28">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -2203,7 +2185,7 @@
       <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="36">
+      <c r="A44" s="28">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2219,7 +2201,7 @@
       <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="36">
+      <c r="A45" s="28">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -2235,7 +2217,7 @@
       <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="36">
+      <c r="A46" s="28">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -2247,8 +2229,8 @@
       <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="36">
-        <f>A46+1</f>
+      <c r="A47" s="28">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B47" s="23"/>
@@ -2261,7 +2243,7 @@
       <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="36">
+      <c r="A48" s="28">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -2275,7 +2257,7 @@
       <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="36">
+      <c r="A49" s="28">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -2289,7 +2271,7 @@
       <c r="G49" s="22"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="36">
+      <c r="A50" s="28">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -2301,7 +2283,7 @@
       <c r="G50" s="22"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="36">
+      <c r="A51" s="28">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -2315,7 +2297,7 @@
       <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="36">
+      <c r="A52" s="28">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -2331,7 +2313,7 @@
       <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="36">
+      <c r="A53" s="28">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -2347,7 +2329,7 @@
       <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="36">
+      <c r="A54" s="28">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -2363,7 +2345,7 @@
       <c r="G54" s="22"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="36">
+      <c r="A55" s="28">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -2379,7 +2361,7 @@
       <c r="G55" s="22"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="36">
+      <c r="A56" s="28">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -2395,7 +2377,7 @@
       <c r="G56" s="22"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="36">
+      <c r="A57" s="28">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -2411,7 +2393,7 @@
       <c r="G57" s="22"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="36">
+      <c r="A58" s="28">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -2423,7 +2405,7 @@
       <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="36">
+      <c r="A59" s="28">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -2439,7 +2421,7 @@
       <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="36">
+      <c r="A60" s="28">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -2455,7 +2437,7 @@
       <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="36">
+      <c r="A61" s="28">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -2471,7 +2453,7 @@
       <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="36">
+      <c r="A62" s="28">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -2483,7 +2465,7 @@
       <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="36">
+      <c r="A63" s="28">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -2499,7 +2481,7 @@
       <c r="G63" s="22"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="36">
+      <c r="A64" s="28">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -2515,7 +2497,7 @@
       <c r="G64" s="22"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="36">
+      <c r="A65" s="28">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -2531,7 +2513,7 @@
       <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="36">
+      <c r="A66" s="28">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -2543,7 +2525,7 @@
       <c r="G66" s="22"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="36">
+      <c r="A67" s="28">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -2559,7 +2541,7 @@
       <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="36">
+      <c r="A68" s="28">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -2575,7 +2557,7 @@
       <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="36">
+      <c r="A69" s="28">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -2591,7 +2573,7 @@
       <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="36">
+      <c r="A70" s="28">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -2607,7 +2589,7 @@
       <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="36">
+      <c r="A71" s="28">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -2619,7 +2601,7 @@
       <c r="G71" s="22"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="36">
+      <c r="A72" s="28">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -2635,7 +2617,7 @@
       <c r="G72" s="22"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="36">
+      <c r="A73" s="28">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
@@ -2651,7 +2633,7 @@
       <c r="G73" s="22"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="36">
+      <c r="A74" s="28">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2667,7 +2649,7 @@
       <c r="G74" s="22"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="36">
+      <c r="A75" s="28">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -2683,7 +2665,7 @@
       <c r="G75" s="22"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="36">
+      <c r="A76" s="28">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
@@ -2695,7 +2677,7 @@
       <c r="G76" s="22"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="36">
+      <c r="A77" s="28">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -2711,7 +2693,7 @@
       <c r="G77" s="22"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="36">
+      <c r="A78" s="28">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
@@ -2723,7 +2705,7 @@
       <c r="G78" s="22"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="36">
+      <c r="A79" s="28">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -2739,7 +2721,7 @@
       <c r="G79" s="22"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="36">
+      <c r="A80" s="28">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
@@ -2755,8 +2737,8 @@
       <c r="G80" s="22"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="36">
-        <f t="shared" si="0"/>
+      <c r="A81" s="28">
+        <f t="shared" ref="A81:A93" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -2771,8 +2753,8 @@
       <c r="G81" s="22"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="36">
-        <f t="shared" si="0"/>
+      <c r="A82" s="28">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B82" s="23"/>
@@ -2783,8 +2765,8 @@
       <c r="G82" s="22"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="36">
-        <f t="shared" si="0"/>
+      <c r="A83" s="28">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B83" s="23"/>
@@ -2797,8 +2779,8 @@
       <c r="G83" s="22"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="36">
-        <f t="shared" si="0"/>
+      <c r="A84" s="28">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B84" s="23"/>
@@ -2811,8 +2793,8 @@
       <c r="G84" s="22"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="36">
-        <f t="shared" si="0"/>
+      <c r="A85" s="28">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B85" s="23"/>
@@ -2825,8 +2807,8 @@
       <c r="G85" s="22"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="36">
-        <f t="shared" si="0"/>
+      <c r="A86" s="28">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B86" s="23" t="s">
@@ -2841,8 +2823,8 @@
       <c r="G86" s="22"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="36">
-        <f t="shared" si="0"/>
+      <c r="A87" s="28">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B87" s="23" t="s">
@@ -2857,8 +2839,8 @@
       <c r="G87" s="22"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="36">
-        <f t="shared" ref="A88:A93" si="1">A87+1</f>
+      <c r="A88" s="28">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B88" s="23" t="s">
@@ -2873,7 +2855,7 @@
       <c r="G88" s="22"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="36">
+      <c r="A89" s="28">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -2889,7 +2871,7 @@
       <c r="G89" s="22"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="36">
+      <c r="A90" s="28">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -2905,7 +2887,7 @@
       <c r="G90" s="22"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="36">
+      <c r="A91" s="28">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
@@ -2921,7 +2903,7 @@
       <c r="G91" s="22"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="36">
+      <c r="A92" s="28">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
@@ -2937,7 +2919,7 @@
       <c r="G92" s="22"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="36">
+      <c r="A93" s="28">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808975F7-C57C-C546-971C-148ADC9EF05E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24EC411-9EB7-AE47-9A21-3441EBD089F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ja" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -274,18 +274,6 @@
   </si>
   <si>
     <t>META2XML.ELEMENT_COMMON</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_LIST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_EXTENDS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_IMPLEMENTS</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -556,18 +544,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>blancovuecomponent-list</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovuecomponent-extends</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovuecomponent-implements</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>META2XML.ELEMENT_COMMON_CS</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -626,30 +602,6 @@
   <si>
     <t>blancovalueobjectts-common</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_COMPONENTS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovuecomponent-components</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_HEADER</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>blancovuecomponent-header</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_HEADER_INTERFACE</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>blancovuecomponent-header-interface</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>XML2SOURCE_FILE.ROUTECONFIG.PARAMETER</t>
@@ -679,6 +631,70 @@
     <rPh sb="30" eb="32">
       <t xml:space="preserve">セッテイ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_HEADER_COMPONENTS</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-header-components</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_LIST_COMPONENTS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-list-components</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_HEADER_API</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_LIST_API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-header-api</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-list-api</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_HEADER_PROPS</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_LIST_PROPS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-header-props</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-list-props</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_HEADER_EMITS</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_LIST_EMITS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-header-emits</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-list-emits</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1613,16 +1629,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="12" customWidth="1"/>
     <col min="5" max="7" width="22.1640625" style="12" customWidth="1"/>
@@ -1661,7 +1677,7 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="15"/>
@@ -1685,7 +1701,7 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
@@ -1696,7 +1712,7 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1926,7 +1942,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -1934,22 +1950,23 @@
       <c r="G27" s="22"/>
       <c r="I27" s="33"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" s="41" customFormat="1">
       <c r="A28" s="28">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="I28" s="33"/>
+      <c r="B28" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="28">
@@ -1957,10 +1974,10 @@
         <v>15</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -1968,21 +1985,23 @@
       <c r="G29" s="22"/>
       <c r="I29" s="33"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" s="41" customFormat="1">
       <c r="A30" s="28">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="B30" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="28">
@@ -1990,15 +2009,16 @@
         <v>17</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="1:9" s="41" customFormat="1">
       <c r="A32" s="28">
@@ -2006,10 +2026,10 @@
         <v>18</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
@@ -2018,35 +2038,40 @@
       <c r="H32" s="39"/>
       <c r="I32" s="40"/>
     </row>
-    <row r="33" spans="1:9" s="41" customFormat="1">
+    <row r="33" spans="1:9">
       <c r="A33" s="28">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="40"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="B33" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" spans="1:9" s="41" customFormat="1">
       <c r="A34" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
+      <c r="B34" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="40"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="28">
@@ -2054,31 +2079,29 @@
         <v>21</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
+      <c r="I35" s="33"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="28">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
+      <c r="I36" s="33"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="28">
@@ -2097,48 +2120,40 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" s="41" customFormat="1">
       <c r="A39" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
+    </row>
+    <row r="40" spans="1:9" s="41" customFormat="1">
       <c r="A40" s="28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="28">
@@ -2158,10 +2173,10 @@
         <v>28</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
@@ -2174,10 +2189,10 @@
         <v>29</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
@@ -2189,12 +2204,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
@@ -2206,10 +2217,10 @@
         <v>31</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -2221,8 +2232,12 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="20"/>
+      <c r="B46" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -2233,9 +2248,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B47" s="23"/>
+      <c r="B47" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="C47" s="20" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
@@ -2248,9 +2265,7 @@
         <v>34</v>
       </c>
       <c r="B48" s="23"/>
-      <c r="C48" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="C48" s="20"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
@@ -2261,9 +2276,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="C49" s="20" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
@@ -2275,8 +2292,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="20"/>
+      <c r="B50" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
@@ -2287,9 +2308,11 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="C51" s="20" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
@@ -2302,10 +2325,10 @@
         <v>38</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
@@ -2317,12 +2340,8 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B53" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
@@ -2333,11 +2352,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B54" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="B54" s="23"/>
       <c r="C54" s="20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
@@ -2349,11 +2366,9 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B55" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="B55" s="23"/>
       <c r="C55" s="20" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
@@ -2365,11 +2380,9 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B56" s="23" t="s">
-        <v>50</v>
-      </c>
+      <c r="B56" s="23"/>
       <c r="C56" s="20" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
@@ -2381,12 +2394,8 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
@@ -2398,7 +2407,9 @@
         <v>44</v>
       </c>
       <c r="B58" s="23"/>
-      <c r="C58" s="20"/>
+      <c r="C58" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
@@ -2410,10 +2421,10 @@
         <v>45</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
@@ -2426,10 +2437,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
@@ -2442,10 +2453,10 @@
         <v>47</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
@@ -2457,8 +2468,12 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="20"/>
+      <c r="B62" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
@@ -2470,10 +2485,10 @@
         <v>49</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
@@ -2486,10 +2501,10 @@
         <v>50</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
@@ -2501,12 +2516,8 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
@@ -2517,8 +2528,12 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="20"/>
+      <c r="B66" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
@@ -2530,10 +2545,10 @@
         <v>53</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
@@ -2546,10 +2561,10 @@
         <v>54</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
@@ -2561,12 +2576,8 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
@@ -2578,10 +2589,10 @@
         <v>56</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
@@ -2593,8 +2604,12 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="20"/>
+      <c r="B71" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
       <c r="F71" s="21"/>
@@ -2606,10 +2621,10 @@
         <v>58</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
@@ -2621,12 +2636,8 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B73" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
       <c r="F73" s="21"/>
@@ -2638,10 +2649,10 @@
         <v>60</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
@@ -2654,10 +2665,10 @@
         <v>61</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
@@ -2669,8 +2680,12 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="20"/>
+      <c r="B76" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
@@ -2682,10 +2697,10 @@
         <v>63</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
@@ -2710,10 +2725,10 @@
         <v>65</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
@@ -2726,10 +2741,10 @@
         <v>66</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
@@ -2738,14 +2753,14 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="28">
-        <f t="shared" ref="A81:A93" si="1">A80+1</f>
+        <f t="shared" ref="A81:A100" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
@@ -2757,8 +2772,12 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="20"/>
+      <c r="B82" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
@@ -2770,9 +2789,7 @@
         <v>69</v>
       </c>
       <c r="B83" s="23"/>
-      <c r="C83" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C83" s="20"/>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
@@ -2783,9 +2800,11 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B84" s="23"/>
+      <c r="B84" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="C84" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
@@ -2798,9 +2817,7 @@
         <v>71</v>
       </c>
       <c r="B85" s="23"/>
-      <c r="C85" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C85" s="20"/>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
       <c r="F85" s="21"/>
@@ -2812,10 +2829,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
@@ -2828,10 +2845,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
@@ -2844,10 +2861,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
@@ -2859,12 +2876,8 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B89" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="20"/>
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
       <c r="F89" s="21"/>
@@ -2875,11 +2888,9 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B90" s="23" t="s">
-        <v>105</v>
-      </c>
+      <c r="B90" s="23"/>
       <c r="C90" s="20" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
@@ -2891,11 +2902,9 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B91" s="23" t="s">
-        <v>107</v>
-      </c>
+      <c r="B91" s="23"/>
       <c r="C91" s="20" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
@@ -2907,11 +2916,9 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B92" s="23" t="s">
-        <v>109</v>
-      </c>
+      <c r="B92" s="23"/>
       <c r="C92" s="20" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="21"/>
@@ -2924,10 +2931,10 @@
         <v>79</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D93" s="21"/>
       <c r="E93" s="21"/>
@@ -2935,22 +2942,134 @@
       <c r="G93" s="22"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="28"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="35"/>
+      <c r="A94" s="28">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="22"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="29"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="27"/>
+      <c r="A95" s="28">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="22"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="28">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="22"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="28">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="22"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="28">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="22"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="28">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="22"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="28">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="22"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="28"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="35"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="29"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24EC411-9EB7-AE47-9A21-3441EBD089F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8A7F83-6FB9-AC44-B88E-CAAE81530151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -612,17 +612,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RouteConfigのパラメータです: [{0}]。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RouteConfigを定義します: [{0}]。</t>
-    <rPh sb="12" eb="14">
-      <t>テイギシマス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>XML2SOURCE_FILE.ROUTECONFIG.LIST</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -695,6 +684,114 @@
   </si>
   <si>
     <t>blancovuecomponent-list-emits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.PROPS_SUBJECT.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.PROPS_ALIAS.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.PROPS_INTERFACE.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントのsubjectプロパティです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントのaliasプロパティです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントのプロパティを定義するインタフェイスです</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">テイギスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.PROPS_TYPE.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.PROPS.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.EMITS_TYPE.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.EMITS.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emitsの型を定義します</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emitsの定義です</t>
+    <rPh sb="5" eb="6">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>propsの型を定義します</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>propsの定義です</t>
+    <rPh sb="5" eb="6">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteRecordを定義します: [{0}]。</t>
+    <rPh sb="12" eb="14">
+      <t>テイギシマス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteRecordのパラメータです: [{0}]。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.ROUTE_SETTINGS_CONST.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteRecordの配列を返します。</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">カエシマス。 </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1629,10 +1726,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1956,10 +2053,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
@@ -1974,10 +2071,10 @@
         <v>15</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -1991,10 +2088,10 @@
         <v>16</v>
       </c>
       <c r="B30" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="37" t="s">
         <v>116</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>118</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -2009,10 +2106,10 @@
         <v>17</v>
       </c>
       <c r="B31" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>119</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -2026,10 +2123,10 @@
         <v>18</v>
       </c>
       <c r="B32" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="37" t="s">
         <v>120</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>122</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
@@ -2044,10 +2141,10 @@
         <v>19</v>
       </c>
       <c r="B33" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>123</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
@@ -2061,10 +2158,10 @@
         <v>20</v>
       </c>
       <c r="B34" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="37" t="s">
         <v>124</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>126</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -2079,10 +2176,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>125</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>127</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
@@ -2753,7 +2850,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="28">
-        <f t="shared" ref="A81:A100" si="1">A80+1</f>
+        <f t="shared" ref="A81:A109" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -2832,7 +2929,7 @@
         <v>107</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
@@ -2848,7 +2945,7 @@
         <v>106</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
@@ -2861,10 +2958,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
@@ -2876,8 +2973,12 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="20"/>
+      <c r="B89" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>129</v>
+      </c>
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
       <c r="F89" s="21"/>
@@ -2888,9 +2989,11 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B90" s="23"/>
+      <c r="B90" s="23" t="s">
+        <v>127</v>
+      </c>
       <c r="C90" s="20" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
@@ -2902,9 +3005,11 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B91" s="23"/>
+      <c r="B91" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="C91" s="20" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
@@ -2916,9 +3021,11 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B92" s="23"/>
+      <c r="B92" s="23" t="s">
+        <v>132</v>
+      </c>
       <c r="C92" s="20" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="21"/>
@@ -2931,10 +3038,10 @@
         <v>79</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="D93" s="21"/>
       <c r="E93" s="21"/>
@@ -2947,10 +3054,10 @@
         <v>80</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="21"/>
@@ -2963,10 +3070,10 @@
         <v>81</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
@@ -2979,10 +3086,10 @@
         <v>82</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="21"/>
@@ -2994,12 +3101,8 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B97" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="B97" s="23"/>
+      <c r="C97" s="20"/>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
@@ -3010,12 +3113,8 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B98" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="B98" s="23"/>
+      <c r="C98" s="20"/>
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
@@ -3026,11 +3125,9 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B99" s="23" t="s">
-        <v>103</v>
-      </c>
+      <c r="B99" s="23"/>
       <c r="C99" s="20" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
@@ -3042,11 +3139,9 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B100" s="23" t="s">
-        <v>86</v>
-      </c>
+      <c r="B100" s="23"/>
       <c r="C100" s="20" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
@@ -3054,22 +3149,164 @@
       <c r="G100" s="22"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="28"/>
+      <c r="A101" s="28">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
       <c r="B101" s="23"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="35"/>
+      <c r="C101" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="22"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="29"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="27"/>
+      <c r="A102" s="28">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="22"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="28">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="22"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="28">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="22"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="28">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="22"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="28">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="22"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="28">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="22"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="28">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="22"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="28">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="22"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="28"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="35"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="29"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8A7F83-6FB9-AC44-B88E-CAAE81530151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7905BE-DB28-1643-9286-70FEB43A8430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -791,6 +791,28 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t xml:space="preserve">カエシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.REQUEST_FACTORY.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}RequestFactoryを生成します。</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.REQUEST_FACTORY_METHOD.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0} クラスを生成します。</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">セイセイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1726,10 +1748,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2850,7 +2872,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="28">
-        <f t="shared" ref="A81:A109" si="1">A80+1</f>
+        <f t="shared" ref="A81:A111" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -3101,8 +3123,12 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="20"/>
+      <c r="B97" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
@@ -3113,8 +3139,12 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="20"/>
+      <c r="B98" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
@@ -3126,9 +3156,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="23"/>
-      <c r="C99" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="C99" s="20"/>
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
       <c r="F99" s="21"/>
@@ -3140,9 +3168,7 @@
         <v>86</v>
       </c>
       <c r="B100" s="23"/>
-      <c r="C100" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="C100" s="20"/>
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
@@ -3167,11 +3193,9 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B102" s="23" t="s">
-        <v>91</v>
-      </c>
+      <c r="B102" s="23"/>
       <c r="C102" s="20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D102" s="21"/>
       <c r="E102" s="21"/>
@@ -3183,11 +3207,9 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B103" s="23" t="s">
-        <v>93</v>
-      </c>
+      <c r="B103" s="23"/>
       <c r="C103" s="20" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
@@ -3200,10 +3222,10 @@
         <v>90</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="21"/>
@@ -3216,10 +3238,10 @@
         <v>91</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D105" s="21"/>
       <c r="E105" s="21"/>
@@ -3232,10 +3254,10 @@
         <v>92</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D106" s="21"/>
       <c r="E106" s="21"/>
@@ -3248,10 +3270,10 @@
         <v>93</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D107" s="21"/>
       <c r="E107" s="21"/>
@@ -3264,10 +3286,10 @@
         <v>94</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D108" s="21"/>
       <c r="E108" s="21"/>
@@ -3280,10 +3302,10 @@
         <v>95</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D109" s="21"/>
       <c r="E109" s="21"/>
@@ -3291,22 +3313,54 @@
       <c r="G109" s="22"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="28"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="35"/>
+      <c r="A110" s="28">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="22"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="29"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="27"/>
+      <c r="A111" s="28">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="22"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="28"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="35"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="29"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7905BE-DB28-1643-9286-70FEB43A8430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3D74F-1874-A14F-8365-2685FAEE6F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -813,6 +813,17 @@
     <t>{0} クラスを生成します。</t>
     <rPh sb="8" eb="10">
       <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.REQUEST_FACTORY_RETURN.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0} クラスを返却します。</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヘンキャク </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1748,10 +1759,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2872,7 +2883,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="28">
-        <f t="shared" ref="A81:A111" si="1">A80+1</f>
+        <f t="shared" ref="A81:A112" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -3155,8 +3166,12 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="20"/>
+      <c r="B99" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>149</v>
+      </c>
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
       <c r="F99" s="21"/>
@@ -3180,9 +3195,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="23"/>
-      <c r="C101" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="C101" s="20"/>
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
       <c r="F101" s="21"/>
@@ -3195,7 +3208,7 @@
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="20" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D102" s="21"/>
       <c r="E102" s="21"/>
@@ -3209,7 +3222,7 @@
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="20" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
@@ -3221,11 +3234,9 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B104" s="23" t="s">
-        <v>91</v>
-      </c>
+      <c r="B104" s="23"/>
       <c r="C104" s="20" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="21"/>
@@ -3238,10 +3249,10 @@
         <v>91</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D105" s="21"/>
       <c r="E105" s="21"/>
@@ -3254,10 +3265,10 @@
         <v>92</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D106" s="21"/>
       <c r="E106" s="21"/>
@@ -3270,10 +3281,10 @@
         <v>93</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D107" s="21"/>
       <c r="E107" s="21"/>
@@ -3286,10 +3297,10 @@
         <v>94</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D108" s="21"/>
       <c r="E108" s="21"/>
@@ -3302,10 +3313,10 @@
         <v>95</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D109" s="21"/>
       <c r="E109" s="21"/>
@@ -3318,10 +3329,10 @@
         <v>96</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D110" s="21"/>
       <c r="E110" s="21"/>
@@ -3334,10 +3345,10 @@
         <v>97</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D111" s="21"/>
       <c r="E111" s="21"/>
@@ -3345,22 +3356,38 @@
       <c r="G111" s="22"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="28"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="35"/>
+      <c r="A112" s="28">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="22"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="29"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="27"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="35"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="29"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3D74F-1874-A14F-8365-2685FAEE6F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B6AF1C-2981-E946-AF9D-31D9BF6BB434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -825,6 +825,14 @@
     <rPh sb="8" eb="10">
       <t xml:space="preserve">ヘンキャク </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.PROPS_COMPOENENT_ID.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントのcomponentIdプロパティです</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1759,10 +1767,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2883,7 +2891,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="28">
-        <f t="shared" ref="A81:A112" si="1">A80+1</f>
+        <f t="shared" ref="A81:A113" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -3039,10 +3047,10 @@
         <v>77</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
@@ -3055,10 +3063,10 @@
         <v>78</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="21"/>
@@ -3071,10 +3079,10 @@
         <v>79</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D93" s="21"/>
       <c r="E93" s="21"/>
@@ -3087,10 +3095,10 @@
         <v>80</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="21"/>
@@ -3103,10 +3111,10 @@
         <v>81</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
@@ -3119,10 +3127,10 @@
         <v>82</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="21"/>
@@ -3135,10 +3143,10 @@
         <v>83</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
@@ -3151,10 +3159,10 @@
         <v>84</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
@@ -3167,10 +3175,10 @@
         <v>85</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
@@ -3182,8 +3190,12 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="20"/>
+      <c r="B100" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>149</v>
+      </c>
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
@@ -3207,9 +3219,7 @@
         <v>88</v>
       </c>
       <c r="B102" s="23"/>
-      <c r="C102" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="C102" s="20"/>
       <c r="D102" s="21"/>
       <c r="E102" s="21"/>
       <c r="F102" s="21"/>
@@ -3222,7 +3232,7 @@
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="20" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
@@ -3236,7 +3246,7 @@
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="20" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="21"/>
@@ -3248,11 +3258,9 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B105" s="23" t="s">
-        <v>91</v>
-      </c>
+      <c r="B105" s="23"/>
       <c r="C105" s="20" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D105" s="21"/>
       <c r="E105" s="21"/>
@@ -3265,10 +3273,10 @@
         <v>92</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D106" s="21"/>
       <c r="E106" s="21"/>
@@ -3281,10 +3289,10 @@
         <v>93</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D107" s="21"/>
       <c r="E107" s="21"/>
@@ -3297,10 +3305,10 @@
         <v>94</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D108" s="21"/>
       <c r="E108" s="21"/>
@@ -3313,10 +3321,10 @@
         <v>95</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D109" s="21"/>
       <c r="E109" s="21"/>
@@ -3329,10 +3337,10 @@
         <v>96</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D110" s="21"/>
       <c r="E110" s="21"/>
@@ -3345,10 +3353,10 @@
         <v>97</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D111" s="21"/>
       <c r="E111" s="21"/>
@@ -3361,10 +3369,10 @@
         <v>98</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D112" s="21"/>
       <c r="E112" s="21"/>
@@ -3372,22 +3380,38 @@
       <c r="G112" s="22"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="28"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="35"/>
+      <c r="A113" s="28">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="22"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="29"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="27"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="35"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="29"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B6AF1C-2981-E946-AF9D-31D9BF6BB434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2C733-6768-514E-B77B-79984753B708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22380" yWindow="5160" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ja" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="158">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -833,6 +833,42 @@
   </si>
   <si>
     <t>コンポーネントのcomponentIdプロパティです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-bread-crumbs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_BREAD_CRUMBS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント別名などをキーにRouteRecordを取得するMapのインタフェイスです。</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ベツメイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シュトクスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.ROUTERECORD.MAP.INTERFACE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.ROUTERECORD.MAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント別名などをキーにRouteRecordを取得するMapです。</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ベツメイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シュトクスル </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1262,28 +1298,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1323,10 +1358,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1344,7 +1378,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1767,10 +1801,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1825,11 +1859,11 @@
         <v>1</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1869,11 +1903,11 @@
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
@@ -1887,1531 +1921,1580 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="28">
+      <c r="A15" s="27">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <f>A15+1</f>
         <v>2</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="28">
+      <c r="A17" s="27">
         <f t="shared" ref="A17:A80" si="0">A16+1</f>
         <v>3</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="28">
+      <c r="A18" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="28">
+      <c r="A21" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="28">
+      <c r="A22" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="28">
+      <c r="A23" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="28">
+      <c r="A24" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="28">
+      <c r="A27" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="I27" s="33"/>
-    </row>
-    <row r="28" spans="1:9" s="41" customFormat="1">
-      <c r="A28" s="28">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" s="39" customFormat="1">
+      <c r="A28" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="I29" s="33"/>
-    </row>
-    <row r="30" spans="1:9" s="41" customFormat="1">
-      <c r="A30" s="28">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" s="39" customFormat="1">
+      <c r="A30" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="1:9" s="41" customFormat="1">
-      <c r="A32" s="28">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" s="39" customFormat="1">
+      <c r="A32" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="40"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="28">
+      <c r="A33" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" spans="1:9" s="41" customFormat="1">
-      <c r="A34" s="28">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="1:9" s="39" customFormat="1">
+      <c r="A34" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="40"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="28">
+      <c r="A35" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="I35" s="33"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="28">
+      <c r="A36" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="I36" s="33"/>
+      <c r="B36" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="28">
+      <c r="A37" s="27">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
+      <c r="I37" s="31"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="28">
+      <c r="A38" s="27">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="1:9" s="41" customFormat="1">
-      <c r="A39" s="28">
+      <c r="B38" s="22"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="40"/>
-    </row>
-    <row r="40" spans="1:9" s="41" customFormat="1">
-      <c r="A40" s="28">
+      <c r="B39" s="22"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" s="39" customFormat="1">
+      <c r="A40" s="27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="40"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="28">
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
+    </row>
+    <row r="41" spans="1:9" s="39" customFormat="1">
+      <c r="A41" s="27">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="38"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="28">
+      <c r="A42" s="27">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="27">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="28">
-        <f t="shared" si="0"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="27">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="27">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="27">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="20" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="27">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="27">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="27">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="28">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="28">
-        <f t="shared" si="0"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="27">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="28">
-        <f t="shared" si="0"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="27">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="27">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="28">
-        <f t="shared" si="0"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="27">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="28">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="28">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="28">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="28">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="28">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="28">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="28">
+      <c r="A54" s="27">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="20" t="s">
+      <c r="B54" s="22"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="27">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="28">
-        <f t="shared" si="0"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="27">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="28">
-        <f t="shared" si="0"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="27">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="27">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="27">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="27">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="28">
-        <f t="shared" si="0"/>
+      <c r="C60" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="27">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="28">
-        <f t="shared" si="0"/>
+      <c r="C61" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="27">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="28">
-        <f t="shared" si="0"/>
+      <c r="C62" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="27">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="28">
-        <f t="shared" si="0"/>
+      <c r="C63" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="28">
-        <f t="shared" si="0"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B64" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="28">
-        <f t="shared" si="0"/>
+      <c r="C64" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="28">
-        <f t="shared" si="0"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="27">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B65" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="28">
-        <f t="shared" si="0"/>
+      <c r="C65" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="28">
-        <f t="shared" si="0"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="27">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="27">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B67" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="28">
-        <f t="shared" si="0"/>
+      <c r="C67" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="27">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B68" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="28">
-        <f t="shared" si="0"/>
+      <c r="C68" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="20" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="21"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="27">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="27">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="27">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="21"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="27">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="28">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="28">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="28">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="28">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="22"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="28">
-        <f t="shared" si="0"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="21"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="27">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B73" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="20" t="s">
+      <c r="C73" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="22"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="28">
-        <f t="shared" si="0"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="21"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="27">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B75" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="28">
-        <f t="shared" si="0"/>
+      <c r="C75" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="21"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="27">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B76" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="22"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="28">
-        <f t="shared" si="0"/>
+      <c r="C76" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="21"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="27">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B77" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="22"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="28">
-        <f t="shared" si="0"/>
+      <c r="C77" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="27">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B78" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="22"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="28">
-        <f t="shared" si="0"/>
+      <c r="C78" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="27">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="21"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="27">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B80" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B77" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="22"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="28">
-        <f t="shared" si="0"/>
+      <c r="C80" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="21"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="27">
+        <f t="shared" ref="A81:A116" si="1">A80+1</f>
+        <v>67</v>
+      </c>
+      <c r="B81" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="22"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="28">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="22"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="28">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="20" t="s">
+      <c r="C81" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="22"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="28">
-        <f t="shared" ref="A81:A113" si="1">A80+1</f>
-        <v>67</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="22"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="21"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="28">
+      <c r="A82" s="27">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B82" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="22"/>
+      <c r="B82" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="28">
+      <c r="A83" s="27">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="22"/>
+      <c r="B83" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="21"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="28">
+      <c r="A84" s="27">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B84" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="21"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="28">
+      <c r="A85" s="27">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="22"/>
+      <c r="B85" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="21"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="28">
+      <c r="A86" s="27">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B86" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="21"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="28">
+      <c r="A87" s="27">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B87" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="22"/>
+      <c r="B87" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="21"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="28">
+      <c r="A88" s="27">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B88" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="22"/>
+      <c r="B88" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="21"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="28">
+      <c r="A89" s="27">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B89" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="22"/>
+      <c r="B89" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="21"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="28">
+      <c r="A90" s="27">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B90" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="22"/>
+      <c r="B90" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="21"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="28">
+      <c r="A91" s="27">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B91" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="22"/>
+      <c r="B91" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="21"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="28">
+      <c r="A92" s="27">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B92" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="22"/>
+      <c r="B92" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="21"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="28">
+      <c r="A93" s="27">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B93" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="22"/>
+      <c r="B93" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="21"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="28">
+      <c r="A94" s="27">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B94" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="22"/>
+      <c r="B94" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="21"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="28">
+      <c r="A95" s="27">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B95" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="22"/>
+      <c r="B95" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="21"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="28">
+      <c r="A96" s="27">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B96" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="22"/>
+      <c r="B96" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="21"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="28">
+      <c r="A97" s="27">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B97" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="22"/>
+      <c r="B97" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="21"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="28">
+      <c r="A98" s="27">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B98" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="22"/>
+      <c r="B98" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="21"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="28">
+      <c r="A99" s="27">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B99" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="22"/>
+      <c r="B99" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="21"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="28">
+      <c r="A100" s="27">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B100" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="22"/>
+      <c r="B100" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="21"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="28">
+      <c r="A101" s="27">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="22"/>
+      <c r="B101" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="21"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="28">
+      <c r="A102" s="27">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="22"/>
+      <c r="B102" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="21"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="28">
+      <c r="A103" s="27">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B103" s="23"/>
-      <c r="C103" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="22"/>
+      <c r="B103" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="21"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="28">
+      <c r="A104" s="27">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="22"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="21"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="28">
+      <c r="A105" s="27">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B105" s="23"/>
-      <c r="C105" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="21"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="28">
+      <c r="A106" s="27">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B106" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="22"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="21"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="28">
+      <c r="A107" s="27">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B107" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="21"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="28">
+      <c r="A108" s="27">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B108" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="22"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="21"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="28">
+      <c r="A109" s="27">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B109" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="22"/>
+      <c r="B109" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="21"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="28">
+      <c r="A110" s="27">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B110" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="22"/>
+      <c r="B110" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="21"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="28">
+      <c r="A111" s="27">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B111" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="22"/>
+      <c r="B111" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="21"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="28">
+      <c r="A112" s="27">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B112" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="22"/>
+      <c r="B112" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="21"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="28">
+      <c r="A113" s="27">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="21"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="27">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="21"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="27">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="21"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="27">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B116" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C116" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="22"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="28"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="35"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="29"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="27"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="21"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="27"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="33"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="28"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2C733-6768-514E-B77B-79984753B708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92430047-F6DD-6741-BEA5-2593EA71D1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="5160" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="164">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -858,17 +858,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>XML2SOURCE_FILE.ROUTERECORD.MAP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンポーネント別名などをキーにRouteRecordを取得するMapです。</t>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ベツメイ </t>
+    <t>XML2SOURCE_FILE.BREAD.CRUMB.NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.BREAD.CRUMB.NOLINK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンくずリストの表示名です。</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンくずリストにリンクが存在しない場合に true を指定します。</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ソンザイスルカ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">バアイニ </t>
     </rPh>
     <rPh sb="27" eb="29">
-      <t xml:space="preserve">シュトクスル </t>
-    </rPh>
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.BREAD.CRUMB.INTERFACE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンくずリストデータのインタフェイスです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.PROPS_BREAD_CRUMB_LIST.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントのbreadCrumbListプロパティです</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1801,10 +1834,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2926,7 +2959,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="27">
-        <f t="shared" ref="A81:A116" si="1">A80+1</f>
+        <f t="shared" ref="A81:A120" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="22" t="s">
@@ -3114,10 +3147,10 @@
         <v>79</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
@@ -3130,10 +3163,10 @@
         <v>80</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
@@ -3146,10 +3179,10 @@
         <v>81</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
@@ -3162,10 +3195,10 @@
         <v>82</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
@@ -3178,10 +3211,10 @@
         <v>83</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
@@ -3194,10 +3227,10 @@
         <v>84</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
@@ -3210,10 +3243,10 @@
         <v>85</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
@@ -3226,10 +3259,10 @@
         <v>86</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
@@ -3242,10 +3275,10 @@
         <v>87</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
@@ -3258,10 +3291,10 @@
         <v>88</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
@@ -3274,10 +3307,10 @@
         <v>89</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
@@ -3289,8 +3322,12 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B104" s="22"/>
-      <c r="C104" s="19"/>
+      <c r="B104" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
@@ -3301,8 +3338,12 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B105" s="22"/>
-      <c r="C105" s="19"/>
+      <c r="B105" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -3313,9 +3354,11 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B106" s="22"/>
+      <c r="B106" s="22" t="s">
+        <v>157</v>
+      </c>
       <c r="C106" s="19" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
@@ -3328,9 +3371,7 @@
         <v>93</v>
       </c>
       <c r="B107" s="22"/>
-      <c r="C107" s="19" t="s">
-        <v>85</v>
-      </c>
+      <c r="C107" s="19"/>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -3342,9 +3383,7 @@
         <v>94</v>
       </c>
       <c r="B108" s="22"/>
-      <c r="C108" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="C108" s="19"/>
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
@@ -3355,12 +3394,8 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B109" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>92</v>
-      </c>
+      <c r="B109" s="22"/>
+      <c r="C109" s="19"/>
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -3371,11 +3406,9 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B110" s="22" t="s">
-        <v>93</v>
-      </c>
+      <c r="B110" s="22"/>
       <c r="C110" s="19" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
@@ -3387,11 +3420,9 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B111" s="22" t="s">
-        <v>95</v>
-      </c>
+      <c r="B111" s="22"/>
       <c r="C111" s="19" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
@@ -3403,11 +3434,9 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B112" s="22" t="s">
-        <v>97</v>
-      </c>
+      <c r="B112" s="22"/>
       <c r="C112" s="19" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
@@ -3420,10 +3449,10 @@
         <v>99</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
@@ -3436,10 +3465,10 @@
         <v>100</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
@@ -3452,10 +3481,10 @@
         <v>101</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
@@ -3468,10 +3497,10 @@
         <v>102</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
@@ -3479,22 +3508,86 @@
       <c r="G116" s="21"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="27"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
-      <c r="G117" s="33"/>
+      <c r="A117" s="27">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="21"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="28"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="26"/>
+      <c r="A118" s="27">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="21"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="27">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="21"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="27">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="21"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="27"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="33"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="28"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92430047-F6DD-6741-BEA5-2593EA71D1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CF0984-3514-2B46-9247-32056DBD90AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="5160" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="176">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -902,6 +902,75 @@
   </si>
   <si>
     <t>コンポーネントのbreadCrumbListプロパティです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_MENU_INFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovuecomponent-menu-info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューノードに表示する表示名です。</t>
+    <rPh sb="0" eb="2">
+      <t>メニューノードニ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヒョウジスル </t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">ヒョウジメイデウｓ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューノードの説明です。</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">セツメイデス。 </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.MENU.ITEM.INTERFACE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.MENU.ITEM.NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.MENU.ITEM.LABEL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.MENU.ITEM.DESCRIPTIOIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー情報のインタフェイスです。</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューノードに対応するページのcomponentIdです。</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">タイオウスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.MENU.ITEM.CLASS.DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MenuItem を定義します。[ {0} ]</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1834,10 +1903,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2317,8 +2386,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>165</v>
+      </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
@@ -2336,6 +2409,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="21"/>
+      <c r="I38" s="31"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="27">
@@ -2349,19 +2423,17 @@
       <c r="F39" s="20"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:9" s="39" customFormat="1">
+    <row r="40" spans="1:9">
       <c r="A40" s="27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="38"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:9" s="39" customFormat="1">
       <c r="A41" s="27">
@@ -2377,29 +2449,27 @@
       <c r="H41" s="37"/>
       <c r="I41" s="38"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" s="39" customFormat="1">
       <c r="A42" s="27">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="38"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="27">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>34</v>
-      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -2411,10 +2481,10 @@
         <v>30</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
@@ -2426,8 +2496,12 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -2438,12 +2512,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -2455,10 +2525,10 @@
         <v>33</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
@@ -2471,10 +2541,10 @@
         <v>34</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
@@ -2486,8 +2556,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -2498,12 +2572,8 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B50" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>31</v>
-      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -2515,10 +2585,10 @@
         <v>37</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
@@ -2531,10 +2601,10 @@
         <v>38</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
@@ -2547,10 +2617,10 @@
         <v>39</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
@@ -2562,8 +2632,12 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -2575,9 +2649,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="22"/>
-      <c r="C55" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="C55" s="19"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -2590,7 +2662,7 @@
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="19" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
@@ -2604,7 +2676,7 @@
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="19" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
@@ -2617,7 +2689,9 @@
         <v>44</v>
       </c>
       <c r="B58" s="22"/>
-      <c r="C58" s="19"/>
+      <c r="C58" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
@@ -2629,9 +2703,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="22"/>
-      <c r="C59" s="19" t="s">
-        <v>70</v>
-      </c>
+      <c r="C59" s="19"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -2642,11 +2714,9 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>42</v>
-      </c>
+      <c r="B60" s="22"/>
       <c r="C60" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
@@ -2659,10 +2729,10 @@
         <v>47</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
@@ -2675,10 +2745,10 @@
         <v>48</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
@@ -2691,10 +2761,10 @@
         <v>49</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
@@ -2707,10 +2777,10 @@
         <v>50</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
@@ -2723,10 +2793,10 @@
         <v>51</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
@@ -2738,8 +2808,12 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="19"/>
+      <c r="B66" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -2750,12 +2824,8 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>74</v>
-      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
@@ -2767,10 +2837,10 @@
         <v>54</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
@@ -2783,10 +2853,10 @@
         <v>55</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
@@ -2798,8 +2868,12 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="19"/>
+      <c r="B70" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
@@ -2810,12 +2884,8 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B71" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>75</v>
-      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -2827,10 +2897,10 @@
         <v>58</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
@@ -2843,10 +2913,10 @@
         <v>59</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
@@ -2858,8 +2928,12 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="19"/>
+      <c r="B74" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
@@ -2870,12 +2944,8 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>77</v>
-      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -2887,10 +2957,10 @@
         <v>62</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
@@ -2903,10 +2973,10 @@
         <v>63</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
@@ -2919,10 +2989,10 @@
         <v>64</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
@@ -2934,8 +3004,12 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="19"/>
+      <c r="B79" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
@@ -2946,12 +3020,8 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B80" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="B80" s="22"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
@@ -2959,14 +3029,14 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="27">
-        <f t="shared" ref="A81:A120" si="1">A80+1</f>
+        <f t="shared" ref="A81:A126" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
@@ -2979,10 +3049,10 @@
         <v>68</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
@@ -2995,10 +3065,10 @@
         <v>69</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
@@ -3010,8 +3080,12 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="19"/>
+      <c r="B84" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
@@ -3022,12 +3096,8 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B85" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>84</v>
-      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
@@ -3038,8 +3108,12 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="19"/>
+      <c r="B86" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -3050,12 +3124,8 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B87" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>140</v>
-      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
@@ -3067,10 +3137,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
@@ -3083,10 +3153,10 @@
         <v>75</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
@@ -3099,10 +3169,10 @@
         <v>76</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
@@ -3115,10 +3185,10 @@
         <v>77</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
@@ -3131,10 +3201,10 @@
         <v>78</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
@@ -3147,10 +3217,10 @@
         <v>79</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
@@ -3163,10 +3233,10 @@
         <v>80</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
@@ -3179,10 +3249,10 @@
         <v>81</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
@@ -3195,10 +3265,10 @@
         <v>82</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
@@ -3211,10 +3281,10 @@
         <v>83</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
@@ -3227,10 +3297,10 @@
         <v>84</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
@@ -3243,10 +3313,10 @@
         <v>85</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
@@ -3259,10 +3329,10 @@
         <v>86</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
@@ -3275,10 +3345,10 @@
         <v>87</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
@@ -3291,10 +3361,10 @@
         <v>88</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
@@ -3307,10 +3377,10 @@
         <v>89</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
@@ -3323,10 +3393,10 @@
         <v>90</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
@@ -3339,10 +3409,10 @@
         <v>91</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
@@ -3355,10 +3425,10 @@
         <v>92</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
@@ -3370,8 +3440,12 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B107" s="22"/>
-      <c r="C107" s="19"/>
+      <c r="B107" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>159</v>
+      </c>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -3394,8 +3468,12 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B109" s="22"/>
-      <c r="C109" s="19"/>
+      <c r="B109" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -3406,9 +3484,11 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B110" s="22"/>
+      <c r="B110" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="C110" s="19" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
@@ -3420,9 +3500,11 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B111" s="22"/>
+      <c r="B111" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="C111" s="19" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
@@ -3431,12 +3513,14 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="27">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="B112" s="22"/>
+        <f>A110+1</f>
+        <v>97</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="C112" s="19" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
@@ -3445,14 +3529,14 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="27">
-        <f t="shared" si="1"/>
-        <v>99</v>
+        <f>A111+1</f>
+        <v>98</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
@@ -3462,14 +3546,10 @@
     <row r="114" spans="1:7">
       <c r="A114" s="27">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>94</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B114" s="22"/>
+      <c r="C114" s="19"/>
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -3478,14 +3558,10 @@
     <row r="115" spans="1:7">
       <c r="A115" s="27">
         <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="B115" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>96</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B115" s="22"/>
+      <c r="C115" s="19"/>
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -3494,13 +3570,11 @@
     <row r="116" spans="1:7">
       <c r="A116" s="27">
         <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>97</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B116" s="22"/>
       <c r="C116" s="19" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
@@ -3510,13 +3584,11 @@
     <row r="117" spans="1:7">
       <c r="A117" s="27">
         <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>99</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B117" s="22"/>
       <c r="C117" s="19" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
@@ -3526,13 +3598,11 @@
     <row r="118" spans="1:7">
       <c r="A118" s="27">
         <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>101</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B118" s="22"/>
       <c r="C118" s="19" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
@@ -3542,13 +3612,13 @@
     <row r="119" spans="1:7">
       <c r="A119" s="27">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
@@ -3558,13 +3628,13 @@
     <row r="120" spans="1:7">
       <c r="A120" s="27">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
@@ -3572,22 +3642,118 @@
       <c r="G120" s="21"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="27"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="33"/>
+      <c r="A121" s="27">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="21"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="28"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="26"/>
+      <c r="A122" s="27">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="21"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="27">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="21"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="27">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="21"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="27">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="21"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="27">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="21"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="27"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="33"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="28"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CF0984-3514-2B46-9247-32056DBD90AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE957C3A-CADD-F64C-8C7C-05A8255A937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="5160" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="10080" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ja" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="178">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -970,6 +970,17 @@
     <t>MenuItem を定義します。[ {0} ]</t>
     <rPh sb="10" eb="12">
       <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.MENU.ITEM.CHILDREN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューノードの子階層です。</t>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">コカイソウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1903,10 +1914,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3029,7 +3040,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="27">
-        <f t="shared" ref="A81:A126" si="1">A80+1</f>
+        <f t="shared" ref="A81:A127" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="22" t="s">
@@ -3513,8 +3524,8 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="27">
-        <f>A110+1</f>
-        <v>97</v>
+        <f>A109+1</f>
+        <v>96</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>171</v>
@@ -3529,14 +3540,14 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="27">
-        <f>A111+1</f>
-        <v>98</v>
+        <f>A110+1</f>
+        <v>97</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
@@ -3545,11 +3556,15 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="27">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="B114" s="22"/>
-      <c r="C114" s="19"/>
+        <f>A111+1</f>
+        <v>98</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -3558,7 +3573,7 @@
     <row r="115" spans="1:7">
       <c r="A115" s="27">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B115" s="22"/>
       <c r="C115" s="19"/>
@@ -3570,12 +3585,10 @@
     <row r="116" spans="1:7">
       <c r="A116" s="27">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B116" s="22"/>
-      <c r="C116" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="C116" s="19"/>
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
@@ -3584,11 +3597,11 @@
     <row r="117" spans="1:7">
       <c r="A117" s="27">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" s="22"/>
       <c r="C117" s="19" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
@@ -3598,11 +3611,11 @@
     <row r="118" spans="1:7">
       <c r="A118" s="27">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B118" s="22"/>
       <c r="C118" s="19" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
@@ -3612,13 +3625,11 @@
     <row r="119" spans="1:7">
       <c r="A119" s="27">
         <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B119" s="22" t="s">
-        <v>91</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B119" s="22"/>
       <c r="C119" s="19" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
@@ -3628,13 +3639,13 @@
     <row r="120" spans="1:7">
       <c r="A120" s="27">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
@@ -3644,13 +3655,13 @@
     <row r="121" spans="1:7">
       <c r="A121" s="27">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
@@ -3660,13 +3671,13 @@
     <row r="122" spans="1:7">
       <c r="A122" s="27">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
@@ -3676,13 +3687,13 @@
     <row r="123" spans="1:7">
       <c r="A123" s="27">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
@@ -3692,13 +3703,13 @@
     <row r="124" spans="1:7">
       <c r="A124" s="27">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
@@ -3708,13 +3719,13 @@
     <row r="125" spans="1:7">
       <c r="A125" s="27">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
@@ -3724,13 +3735,13 @@
     <row r="126" spans="1:7">
       <c r="A126" s="27">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
@@ -3738,22 +3749,38 @@
       <c r="G126" s="21"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="27"/>
-      <c r="B127" s="22"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="33"/>
+      <c r="A127" s="27">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="21"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="28"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="26"/>
+      <c r="A128" s="27"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="33"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="28"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE957C3A-CADD-F64C-8C7C-05A8255A937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA206BB5-D783-EC4C-A9F8-09337DE3AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6660" yWindow="10080" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="180">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -981,6 +981,23 @@
     <t>メニューノードの子階層です。</t>
     <rPh sb="8" eb="11">
       <t xml:space="preserve">コカイソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.MENU.ITEM.QUERY.AND.HASH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューノードから遷移する際に付加するQueryとHash文字列です。</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">センイ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">フカ </t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t xml:space="preserve">モジレツ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1914,10 +1931,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3040,7 +3057,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="27">
-        <f t="shared" ref="A81:A127" si="1">A80+1</f>
+        <f t="shared" ref="A81:A128" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="22" t="s">
@@ -3540,8 +3557,8 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="27">
-        <f>A110+1</f>
-        <v>97</v>
+        <f>A109+1</f>
+        <v>96</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>176</v>
@@ -3556,14 +3573,14 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="27">
-        <f>A111+1</f>
-        <v>98</v>
+        <f>A110+1</f>
+        <v>97</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
@@ -3572,11 +3589,15 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="27">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="B115" s="22"/>
-      <c r="C115" s="19"/>
+        <f>A111+1</f>
+        <v>98</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -3585,7 +3606,7 @@
     <row r="116" spans="1:7">
       <c r="A116" s="27">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B116" s="22"/>
       <c r="C116" s="19"/>
@@ -3597,12 +3618,10 @@
     <row r="117" spans="1:7">
       <c r="A117" s="27">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B117" s="22"/>
-      <c r="C117" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="C117" s="19"/>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -3611,11 +3630,11 @@
     <row r="118" spans="1:7">
       <c r="A118" s="27">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" s="22"/>
       <c r="C118" s="19" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
@@ -3625,11 +3644,11 @@
     <row r="119" spans="1:7">
       <c r="A119" s="27">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B119" s="22"/>
       <c r="C119" s="19" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
@@ -3639,13 +3658,11 @@
     <row r="120" spans="1:7">
       <c r="A120" s="27">
         <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B120" s="22" t="s">
-        <v>91</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B120" s="22"/>
       <c r="C120" s="19" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
@@ -3655,13 +3672,13 @@
     <row r="121" spans="1:7">
       <c r="A121" s="27">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
@@ -3671,13 +3688,13 @@
     <row r="122" spans="1:7">
       <c r="A122" s="27">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
@@ -3687,13 +3704,13 @@
     <row r="123" spans="1:7">
       <c r="A123" s="27">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
@@ -3703,13 +3720,13 @@
     <row r="124" spans="1:7">
       <c r="A124" s="27">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
@@ -3719,13 +3736,13 @@
     <row r="125" spans="1:7">
       <c r="A125" s="27">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
@@ -3735,13 +3752,13 @@
     <row r="126" spans="1:7">
       <c r="A126" s="27">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
@@ -3751,13 +3768,13 @@
     <row r="127" spans="1:7">
       <c r="A127" s="27">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
@@ -3765,22 +3782,38 @@
       <c r="G127" s="21"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="27"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="33"/>
+      <c r="A128" s="27">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="21"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="28"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="26"/>
+      <c r="A129" s="27"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="33"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="28"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoVueComponentResourceBundle.xlsx
+++ b/meta/program/BlancoVueComponentResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA206BB5-D783-EC4C-A9F8-09337DE3AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C43ADC-9067-714B-9FCC-E774F2736947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6660" yWindow="10080" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="184">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -998,6 +998,40 @@
     </rPh>
     <rPh sb="29" eb="32">
       <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.PERMISSION.KIND.MAP.INTERFACE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限種別をキーにcomponentIdの配列を取得するMapのインタフェイスです。</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ケンゲンシュベツ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">シュトクスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.PERMISSION.KIND.MAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限種別をキーにcomponentIdの配列を取得するMapです。</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ケンゲンシュベツ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">シュトクスル </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1931,10 +1965,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3057,7 +3091,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="27">
-        <f t="shared" ref="A81:A128" si="1">A80+1</f>
+        <f t="shared" ref="A81:A130" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="22" t="s">
@@ -3541,8 +3575,8 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="27">
-        <f>A109+1</f>
-        <v>96</v>
+        <f t="shared" si="1"/>
+        <v>98</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>171</v>
@@ -3557,8 +3591,8 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="27">
-        <f>A109+1</f>
-        <v>96</v>
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>176</v>
@@ -3573,8 +3607,8 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="27">
-        <f>A110+1</f>
-        <v>97</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="B114" s="22" t="s">
         <v>178</v>
@@ -3589,8 +3623,8 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="27">
-        <f>A111+1</f>
-        <v>98</v>
+        <f t="shared" si="1"/>
+        <v>101</v>
       </c>
       <c r="B115" s="22" t="s">
         <v>174</v>
@@ -3606,10 +3640,14 @@
     <row r="116" spans="1:7">
       <c r="A116" s="27">
         <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="B116" s="22"/>
-      <c r="C116" s="19"/>
+        <v>102</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>181</v>
+      </c>
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
@@ -3618,10 +3656,14 @@
     <row r="117" spans="1:7">
       <c r="A117" s="27">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B117" s="22"/>
-      <c r="C117" s="19"/>
+        <v>103</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>183</v>
+      </c>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -3630,12 +3672,10 @@
     <row r="118" spans="1:7">
       <c r="A118" s="27">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B118" s="22"/>
-      <c r="C118" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="C118" s="19"/>
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
@@ -3644,12 +3684,10 @@
     <row r="119" spans="1:7">
       <c r="A119" s="27">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B119" s="22"/>
-      <c r="C119" s="19" t="s">
-        <v>85</v>
-      </c>
+      <c r="C119" s="19"/>
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -3658,7 +3696,7 @@
     <row r="120" spans="1:7">
       <c r="A120" s="27">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B120" s="22"/>
       <c r="C120" s="19" t="s">
@@ -3672,13 +3710,11 @@
     <row r="121" spans="1:7">
       <c r="A121" s="27">
         <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B121" s="22" t="s">
-        <v>91</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B121" s="22"/>
       <c r="C121" s="19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
@@ -3688,13 +3724,11 @@
     <row r="122" spans="1:7">
       <c r="A122" s="27">
         <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="B122" s="22" t="s">
-        <v>93</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B122" s="22"/>
       <c r="C122" s="19" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
@@ -3704,13 +3738,13 @@
     <row r="123" spans="1:7">
       <c r="A123" s="27">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
@@ -3720,13 +3754,13 @@
     <row r="124" spans="1:7">
       <c r="A124" s="27">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
@@ -3736,13 +3770,13 @@
     <row r="125" spans="1:7">
       <c r="A125" s="27">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
@@ -3752,13 +3786,13 @@
     <row r="126" spans="1:7">
       <c r="A126" s="27">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
@@ -3768,13 +3802,13 @@
     <row r="127" spans="1:7">
       <c r="A127" s="27">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
@@ -3784,13 +3818,13 @@
     <row r="128" spans="1:7">
       <c r="A128" s="27">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
@@ -3798,22 +3832,54 @@
       <c r="G128" s="21"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="27"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="33"/>
+      <c r="A129" s="27">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="21"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="28"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="26"/>
+      <c r="A130" s="27">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="21"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="27"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="33"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="28"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
